--- a/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link1_request400.xlsx
+++ b/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link1_request400.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.9304</v>
+        <v>18.9304</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>51.6968</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="86">
@@ -1949,7 +1949,7 @@
         <v>3.924</v>
       </c>
       <c r="C138" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="139">
@@ -1960,7 +1960,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="140">
@@ -1971,7 +1971,7 @@
         <v>2.192</v>
       </c>
       <c r="C140" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="141">
@@ -1982,7 +1982,7 @@
         <v>0.556</v>
       </c>
       <c r="C141" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="142">
@@ -1993,7 +1993,7 @@
         <v>10.644</v>
       </c>
       <c r="C142" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="143">
@@ -2367,7 +2367,7 @@
         <v>13.676</v>
       </c>
       <c r="C176" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="177">
@@ -3016,7 +3016,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C235" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="236">
@@ -3907,7 +3907,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C316" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="317">
@@ -4798,7 +4798,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C397" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="398">
@@ -5689,7 +5689,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C478" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="479">
@@ -6580,7 +6580,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C559" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="560">
@@ -7471,7 +7471,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C640" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="641">
@@ -8362,7 +8362,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C721" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="722">
@@ -9253,7 +9253,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C802" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="803">
@@ -10144,7 +10144,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C883" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="884">
@@ -10427,7 +10427,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>241.9976</v>
+        <v>225.9976</v>
       </c>
       <c r="C909" t="n">
         <v>12187501</v>
